--- a/Hardware/BOM_主控.xlsx
+++ b/Hardware/BOM_主控.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82819237-295E-496F-A3B0-183337D5F63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDB10A1-BB9F-448E-8815-9D04C9ECEC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="171">
   <si>
     <t>No.</t>
   </si>
@@ -532,14 +532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注意这四个零欧姆电阻的位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收管只要焊接一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天键盘上的灯不焊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -549,6 +541,70 @@
   </si>
   <si>
     <t>接线的时候一定要仔细对照PCB图，千万别接反了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GH1.25-3P 线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买3p单头的线，然后再买几根杜邦线，到时候焊接再一起连下载器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=620275448420&amp;pisk=ffXrMV0588ezuq4S1UJebTPQuTJJFdU6E9TBxMjHVUYkP9_FxHtpqHDHtmvDxEMQ2LNpLw8VJUOWEUMeLM7dRBXBR9oR3NkIFzFRxvJBKPa_CRs82pp35s2t-yoJAHxnK2tkoE0H8GE_CRsR0F65o9y_vz5jWCtHKQAHojYvA0xl-QjmnEKpx4vHroSDkOCxqocyMPbDo61EH7ia9GTqKAo94QAzBEDn2txy7Fju9vDh33RPdSslbMA5tGdOFNyEHLsNiKxFplce8C5hFKXuoRAvttbDmaZI9n5FxOpJQD2l0L8ys97mfA_G0Mf6gtZgBLJkr69RAcz50T752tSIxjvyFsRNUdjPo2Kcw76da2ceZnK25orV1_S6gvqFHRcK9IPv0FZTXXcnWTDIaTBS9Xd48n8_jT1..&amp;spm=a1z10.3-c-s.w4002-24706531953.9.2ace6a4b1HUSU7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧录器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=18&amp;id=714462421708&amp;ns=1&amp;priceTId=2150446a17266358660604839e6290&amp;skuId=5173814371618&amp;spm=a21n57.1.item.2.79e0523cAD9Ixp&amp;utparam=%7B%22aplus_abtest%22%3A%22e2092b4cc9aba015b4d8e34521e717e0%22%7D&amp;xxc=taobaoSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意这四个零欧姆电阻的位置，这四块板子0R电阻位置不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接收管每组两个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只要焊接一个</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊接工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热风枪，电烙铁，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED拆焊台（可选），焊锡膏，焊油，洗板水，吸锡带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以后还想做些其他的话可以买个优利德的万用表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +612,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,6 +642,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -608,13 +680,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1212,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1599,7 +1673,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
         <v>64</v>
@@ -1799,7 +1873,18 @@
       <c r="A31" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1822,11 +1907,18 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
       <c r="E33" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
@@ -2002,7 +2094,21 @@
         <v>155</v>
       </c>
       <c r="F48" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C49" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2012,13 +2118,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>159</v>
-      </c>
-      <c r="F52" t="s">
         <v>157</v>
       </c>
-      <c r="M52" t="s">
-        <v>158</v>
+      <c r="F52" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2047,10 +2153,12 @@
     <hyperlink ref="F39" r:id="rId21" xr:uid="{0AC70DED-F4B9-49FE-AC3F-958F1A7095B0}"/>
     <hyperlink ref="F46" r:id="rId22" xr:uid="{1BDB0975-67F7-4B5A-A2EF-B85A2390FE2A}"/>
     <hyperlink ref="F47" r:id="rId23" display="https://item.taobao.com/item.htm?id=606670476627&amp;pisk=f0HipWAgnfP1PEQgVB26MgyiOdOpCNwbbqBYk-U2TyzCBqeTHJoUXufNb1rqYXmSoPKX1Rh3o2u37Ad_ktbm8mIT_5zZY6rY2Oz4gSlhm0gnoSt_krzmkml9vLp-fcwb3-YJeLBU9rKmSNW47nzUcudrSTnqfcwbufojLUn1ia0gBsVquJPU0ue40PzwxJrbV-WagOoU8yZ2uAYVf4QmQKV0rNfGCJFvLR4rbPotXvJ3_1ig-20ELlcLzcRf3tk3j5Dv9m-vV5hqV7MtrKXQB0cULoDX4s40ZjkTLA8eUWNqL2rEWnCbxjmqFRwl0do3IPVrn2SRe4on0bFnp3J7IRzZMRiAqFnnIVnsKmIVTR2tt7DgUgW5T_ophtZeDv5fG5rQxzEZpxjuJtJsrHxh7jNaAlVpxHffM5rQfztHxNl0_kZgg&amp;skuId=4426785718164&amp;spm=a1z10.5-c-s.w4002-23408602905.15.20dd559fgkjKgy" xr:uid="{98B69B02-B43C-4C9B-A6F4-0B80EE56BC8A}"/>
+    <hyperlink ref="F31" r:id="rId24" display="https://item.taobao.com/item.htm?id=620275448420&amp;pisk=ffXrMV0588ezuq4S1UJebTPQuTJJFdU6E9TBxMjHVUYkP9_FxHtpqHDHtmvDxEMQ2LNpLw8VJUOWEUMeLM7dRBXBR9oR3NkIFzFRxvJBKPa_CRs82pp35s2t-yoJAHxnK2tkoE0H8GE_CRsR0F65o9y_vz5jWCtHKQAHojYvA0xl-QjmnEKpx4vHroSDkOCxqocyMPbDo61EH7ia9GTqKAo94QAzBEDn2txy7Fju9vDh33RPdSslbMA5tGdOFNyEHLsNiKxFplce8C5hFKXuoRAvttbDmaZI9n5FxOpJQD2l0L8ys97mfA_G0Mf6gtZgBLJkr69RAcz50T752tSIxjvyFsRNUdjPo2Kcw76da2ceZnK25orV1_S6gvqFHRcK9IPv0FZTXXcnWTDIaTBS9Xd48n8_jT1..&amp;spm=a1z10.3-c-s.w4002-24706531953.9.2ace6a4b1HUSU7" xr:uid="{E96FCF81-FF77-4E8A-8829-1AB82EF4C05A}"/>
+    <hyperlink ref="F33" r:id="rId25" xr:uid="{7483CFB3-8D11-4968-9501-F44E195306DD}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-  <drawing r:id="rId24"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>